--- a/medicine/Enfance/Prix_Dupuis/Prix_Dupuis.xlsx
+++ b/medicine/Enfance/Prix_Dupuis/Prix_Dupuis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Dupuis, de la fondation du même nom, est un « prix de l'Institut de France attribué sur proposition de l’Académie française. Les revenus de cette fondation serviront à venir en aide aux enfants malheureux et abandonnés »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Dupuis, de la fondation du même nom, est un « prix de l'Institut de France attribué sur proposition de l’Académie française. Les revenus de cette fondation serviront à venir en aide aux enfants malheureux et abandonnés ».
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1988 : Atelier de l’Arche pour l'ensemble de son œuvre (1 500 F).
-1989 : Œuvre de l’Adoption pour l'ensemble de son œuvre (1 500 F)[2].
+1989 : Œuvre de l’Adoption pour l'ensemble de son œuvre (1 500 F).
 1990 : Les orphelins apprentis d’Auteuil pour l'ensemble de son œuvre (1 500 F).
-1991 : Association française pour l’enfance abandonnée pour l'ensemble de son œuvre (1 500 F)[3].
-1992 : Œuvre de l’Adoption pour l'ensemble de son œuvre (1 500 F)[2].
-1993 : Association Emmanuel pour l'ensemble de son œuvre (1 500 F)[4].
-1994 : Association Emmanuel pour l'ensemble de son œuvre (1 500 F)[4].
-1996 : Association Emmanuel pour l'ensemble de son œuvre (5 000 F)[4].
-1998 : Lucette et Jean Alingrin pour l'ensemble de leur œuvre (6 000 F)[5],[4].
+1991 : Association française pour l’enfance abandonnée pour l'ensemble de son œuvre (1 500 F).
+1992 : Œuvre de l’Adoption pour l'ensemble de son œuvre (1 500 F).
+1993 : Association Emmanuel pour l'ensemble de son œuvre (1 500 F).
+1994 : Association Emmanuel pour l'ensemble de son œuvre (1 500 F).
+1996 : Association Emmanuel pour l'ensemble de son œuvre (5 000 F).
+1998 : Lucette et Jean Alingrin pour l'ensemble de leur œuvre (6 000 F),.
 2000 : Association « Pour un sourire d’enfant » pour l'ensemble de son œuvre (1 500 €).
-2006 : Orphelinat Njaaga Child Hope Centre (1 500 €)[6].
+2006 : Orphelinat Njaaga Child Hope Centre (1 500 €).
 2010 : Fondation Virlanie pour Action auprès des enfants des rues à Manille, aux Philippines (1 500 €).
 2014 : Œuvre des pupilles orphelins des sapeurs-pompiers de France (1 500 €).</t>
         </is>
